--- a/docs/Протокол/GyverLamp_UDP.xlsx
+++ b/docs/Протокол/GyverLamp_UDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13125"/>
+    <workbookView windowWidth="21870" windowHeight="15045"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="147">
   <si>
     <t>Ключ</t>
   </si>
@@ -148,10 +148,10 @@
     <t>номер группы</t>
   </si>
   <si>
-    <t>10 - установка WiFi</t>
-  </si>
-  <si>
-    <t>SSID</t>
+    <t xml:space="preserve">10 - установка WiFi </t>
+  </si>
+  <si>
+    <t>SSID (через запятую)</t>
   </si>
   <si>
     <t>Pass</t>
@@ -175,9 +175,6 @@
     <t>часовой пояс</t>
   </si>
   <si>
-    <t xml:space="preserve"> NTP сервер</t>
-  </si>
-  <si>
     <t>яркость</t>
   </si>
   <si>
@@ -211,27 +208,21 @@
     <t>часы работы до</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>старший байт длины</t>
-  </si>
-  <si>
-    <t>младший байт длины</t>
-  </si>
-  <si>
-    <t>старший байт ширины</t>
-  </si>
-  <si>
-    <t>младший байт ширины</t>
+    <t>ориентация матрицы</t>
+  </si>
+  <si>
+    <t>длина</t>
+  </si>
+  <si>
+    <t>ширина</t>
+  </si>
+  <si>
+    <t>ID города</t>
   </si>
   <si>
     <t>число + 13</t>
   </si>
   <si>
-    <t>1,2.. 5</t>
-  </si>
-  <si>
     <t>0,1.. 255</t>
   </si>
   <si>
@@ -256,6 +247,15 @@
     <t>0,1.. 23</t>
   </si>
   <si>
+    <t>1,2.. 8</t>
+  </si>
+  <si>
+    <t>0,1.. max uint16</t>
+  </si>
+  <si>
+    <t>0,1.. max uint32</t>
+  </si>
+  <si>
     <t>2 - режимы</t>
   </si>
   <si>
@@ -271,7 +271,7 @@
     <t>своя яркость</t>
   </si>
   <si>
-    <t>тип звука</t>
+    <t>дополнительно</t>
   </si>
   <si>
     <t>реакция на звук</t>
@@ -307,19 +307,25 @@
     <t>и так далее по порядку</t>
   </si>
   <si>
-    <t>1 Перлин;2 Цвет;3 Смена;4 Градиент;5 Частицы;6 Огонь</t>
+    <t>в конце номер режима</t>
+  </si>
+  <si>
+    <t>1 Перлин;2 Цвет;3 Смена;4 Градиент;5 Частицы;6 Огонь;7 Погода</t>
   </si>
   <si>
     <t>0 выкл 1 вкл</t>
   </si>
   <si>
-    <t>1 Нет; 2Громкость; 3Низкие; 4Высокие</t>
+    <t>1 Нет; 2 Громкость; 3 Низкие; 4 Высокие;5 Часы</t>
   </si>
   <si>
     <t>1 Яркость;2 Масштаб;3 Длина</t>
   </si>
   <si>
-    <t>1 Тепловая;2 Огненная;3 Лава;4 Вечеринка;Радуга;Полосатая радуга;Облака;Океан;Лес;Закат;Полиция;Оптимус Прайм;Тёплая лава;Холодная лава;Горячая лава;Розовая лава;Уютный;Киберпанк;Девчачая;Рождество;Кислота;Синий дым;Жвачка;Леопард;Аврора</t>
+    <t>1 Кастом, 2 Тепловая;3 Огненная;4 Лава;5 Вечеринка;Радуга;Полосатая радуга;Облака;Океан;Лес;Закат;Полиция;Оптимус Прайм;Тёплая лава;Холодная лава;Горячая лава;Розовая лава;Уютный;Киберпанк;Девчачая;Рождество;Кислота;Синий дым;Жвачка;Леопард;Аврора</t>
+  </si>
+  <si>
+    <t>1.. 25</t>
   </si>
   <si>
     <t>3 - рассвет</t>
@@ -395,6 +401,60 @@
   </si>
   <si>
     <t>5,10,15,20,25,30,40,50,60</t>
+  </si>
+  <si>
+    <t>5 - палитра</t>
+  </si>
+  <si>
+    <t>количество полос</t>
+  </si>
+  <si>
+    <t>полоса 1 R</t>
+  </si>
+  <si>
+    <t>полоса 1 G</t>
+  </si>
+  <si>
+    <t>полоса 1 B</t>
+  </si>
+  <si>
+    <t>полоса 2 R</t>
+  </si>
+  <si>
+    <t>полоса 2 G</t>
+  </si>
+  <si>
+    <t>полоса 2 B</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>полоса 16 R</t>
+  </si>
+  <si>
+    <t>полоса 16 G</t>
+  </si>
+  <si>
+    <t>полоса 16 B</t>
+  </si>
+  <si>
+    <t>2, 3.. 16</t>
+  </si>
+  <si>
+    <t>0.. 255</t>
+  </si>
+  <si>
+    <t>6 - время</t>
+  </si>
+  <si>
+    <t>день недели</t>
+  </si>
+  <si>
+    <t>часы</t>
+  </si>
+  <si>
+    <t>минуты</t>
   </si>
 </sst>
 </file>
@@ -402,10 +462,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -436,16 +496,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,17 +525,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,11 +541,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +588,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -526,20 +600,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,7 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +654,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,31 +762,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,127 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,11 +836,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,10 +888,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -835,21 +919,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -864,30 +933,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,127 +959,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1782,7 +1842,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:22">
+    <row r="17" ht="30" customHeight="1" spans="1:19">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -1824,26 +1884,17 @@
       <c r="O17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="3" t="s">
         <v>66</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:19">
@@ -1851,47 +1902,53 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="O18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="Q18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="R18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:19">
       <c r="A19" s="3"/>
@@ -1912,7 +1969,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:19">
+    <row r="20" ht="30" customHeight="1" spans="1:20">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
@@ -1966,52 +2023,58 @@
       <c r="S20" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:19">
+      <c r="T20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:20">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="P21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
+      <c r="T21" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:19">
       <c r="A22" s="3"/>
@@ -2035,76 +2098,76 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:26">
@@ -2112,73 +2175,73 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:19">
@@ -2202,15 +2265,42 @@
     <row r="26" ht="30" customHeight="1" spans="1:19">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2221,14 +2311,39 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2258,10 +2373,18 @@
     <row r="29" ht="30" customHeight="1" spans="1:19">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>

--- a/docs/Протокол/GyverLamp_UDP.xlsx
+++ b/docs/Протокол/GyverLamp_UDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21870" windowHeight="15045"/>
+    <workbookView windowWidth="26640" windowHeight="15045"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -331,6 +331,9 @@
     <t>3 - рассвет</t>
   </si>
   <si>
+    <t>состояние вс</t>
+  </si>
+  <si>
     <t>состояние пн</t>
   </si>
   <si>
@@ -349,7 +352,7 @@
     <t>состояние сб</t>
   </si>
   <si>
-    <t>состояние вс</t>
+    <t>часы вс</t>
   </si>
   <si>
     <t>часы пн</t>
@@ -370,7 +373,7 @@
     <t>часы сб</t>
   </si>
   <si>
-    <t>часы вс</t>
+    <t>минуты вс</t>
   </si>
   <si>
     <t>минуты пн</t>
@@ -389,9 +392,6 @@
   </si>
   <si>
     <t>минуты сб</t>
-  </si>
-  <si>
-    <t>минуты вс</t>
   </si>
   <si>
     <t>минут до рассвета</t>
@@ -489,22 +489,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,6 +515,50 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,7 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,22 +582,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,6 +603,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -603,35 +626,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -642,7 +642,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,18 +696,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,7 +714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,31 +744,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,37 +786,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,43 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +833,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -862,15 +886,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -882,15 +897,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,17 +925,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,16 +938,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,127 +959,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2100,22 +2100,22 @@
       <c r="C23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="1" t="s">
         <v>110</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -2142,13 +2142,13 @@
       <c r="Q23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="1" t="s">
         <v>119</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="3" t="s">
         <v>121</v>
       </c>
       <c r="U23" s="1" t="s">

--- a/docs/Протокол/GyverLamp_UDP.xlsx
+++ b/docs/Протокол/GyverLamp_UDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="15045"/>
+    <workbookView windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
   <si>
     <t>Ключ</t>
   </si>
@@ -172,90 +172,117 @@
     <t>1 - настройки</t>
   </si>
   <si>
+    <t>яркость</t>
+  </si>
+  <si>
+    <t>режим АЦП</t>
+  </si>
+  <si>
+    <t>мин яркость</t>
+  </si>
+  <si>
+    <t>макс яркость</t>
+  </si>
+  <si>
+    <t>смена режимов</t>
+  </si>
+  <si>
+    <t>случайный порядок</t>
+  </si>
+  <si>
+    <t>период смены</t>
+  </si>
+  <si>
+    <t>тип лампы</t>
+  </si>
+  <si>
+    <t>макс ток</t>
+  </si>
+  <si>
+    <t>часы работы от</t>
+  </si>
+  <si>
+    <t>часы работы до</t>
+  </si>
+  <si>
+    <t>ориентация матрицы</t>
+  </si>
+  <si>
+    <t>длина</t>
+  </si>
+  <si>
+    <t>ширина</t>
+  </si>
+  <si>
     <t>часовой пояс</t>
   </si>
   <si>
-    <t>яркость</t>
-  </si>
-  <si>
-    <t>режим АЦП</t>
-  </si>
-  <si>
-    <t>мин яркость</t>
-  </si>
-  <si>
-    <t>макс яркость</t>
-  </si>
-  <si>
-    <t>смена режимов</t>
-  </si>
-  <si>
-    <t>случайный порядок</t>
-  </si>
-  <si>
-    <t>период смены</t>
-  </si>
-  <si>
-    <t>тип лампы</t>
-  </si>
-  <si>
-    <t>макс ток</t>
-  </si>
-  <si>
-    <t>часы работы от</t>
-  </si>
-  <si>
-    <t>часы работы до</t>
-  </si>
-  <si>
-    <t>ориентация матрицы</t>
-  </si>
-  <si>
-    <t>длина</t>
-  </si>
-  <si>
-    <t>ширина</t>
-  </si>
-  <si>
     <t>ID города</t>
   </si>
   <si>
+    <t>mqtt состояние</t>
+  </si>
+  <si>
+    <t>mqtt ID</t>
+  </si>
+  <si>
+    <t>mqtt host</t>
+  </si>
+  <si>
+    <t>mqtt port</t>
+  </si>
+  <si>
+    <t>mqtt login</t>
+  </si>
+  <si>
+    <t>mqtt pass</t>
+  </si>
+  <si>
+    <t>0,1.. 255</t>
+  </si>
+  <si>
+    <t>1 выкл, 2 яркость, 3 музыка, 4 оба</t>
+  </si>
+  <si>
+    <t>0 ручная, 1 авто</t>
+  </si>
+  <si>
+    <t>0 выкл, 1 вкл</t>
+  </si>
+  <si>
+    <t>1,5,10,15,25,30,40,50,60</t>
+  </si>
+  <si>
+    <t>1 лента, 2 зигзаг, 3 спираль</t>
+  </si>
+  <si>
+    <t>мА / 100</t>
+  </si>
+  <si>
+    <t>0,1.. 23</t>
+  </si>
+  <si>
+    <t>1,2.. 8</t>
+  </si>
+  <si>
+    <t>0,1.. max uint16</t>
+  </si>
+  <si>
     <t>число + 13</t>
   </si>
   <si>
-    <t>0,1.. 255</t>
-  </si>
-  <si>
-    <t>1 выкл, 2 яркость, 3 музыка, 4 оба</t>
-  </si>
-  <si>
-    <t>0 ручная, 1 авто</t>
-  </si>
-  <si>
-    <t>0 выкл, 1 вкл</t>
-  </si>
-  <si>
-    <t>1,5,10,15,25,30,40,50,60</t>
-  </si>
-  <si>
-    <t>1 лента, 2 зигзаг, 3 спираль</t>
-  </si>
-  <si>
-    <t>мА / 100</t>
-  </si>
-  <si>
-    <t>0,1.. 23</t>
-  </si>
-  <si>
-    <t>1,2.. 8</t>
-  </si>
-  <si>
-    <t>0,1.. max uint16</t>
-  </si>
-  <si>
     <t>0,1.. max uint32</t>
   </si>
   <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>цифры</t>
+  </si>
+  <si>
     <t>2 - режимы</t>
   </si>
   <si>
@@ -445,7 +472,7 @@
     <t>0.. 255</t>
   </si>
   <si>
-    <t>6 - время</t>
+    <t>6 - отправить время</t>
   </si>
   <si>
     <t>день недели</t>
@@ -463,8 +490,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -489,9 +516,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,22 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,20 +629,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -557,31 +637,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,37 +659,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -639,6 +666,96 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -648,13 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,49 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,31 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,19 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +825,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,37 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +860,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -847,30 +922,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,30 +952,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -938,16 +965,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,127 +986,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,8 +1447,8 @@
   <sheetPr/>
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1842,7 +1869,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:19">
+    <row r="17" ht="30" customHeight="1" spans="1:25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -1881,13 +1908,13 @@
       <c r="N17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="R17" s="3" t="s">
@@ -1896,58 +1923,94 @@
       <c r="S17" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:19">
+      <c r="T17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:19">
@@ -1973,58 +2036,58 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:20">
@@ -2032,48 +2095,48 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:19">
@@ -2098,76 +2161,76 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:26">
@@ -2175,73 +2238,73 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:19">
@@ -2266,40 +2329,40 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -2312,37 +2375,37 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2374,16 +2437,16 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G29" s="3"/>
       <c r="I29" s="3"/>

--- a/docs/Протокол/GyverLamp_UDP.xlsx
+++ b/docs/Протокол/GyverLamp_UDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14685"/>
+    <workbookView windowWidth="21150" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
   <si>
     <t>Ключ</t>
   </si>
@@ -109,13 +109,25 @@
     <t>0 - выключить</t>
   </si>
   <si>
+    <t>день недели</t>
+  </si>
+  <si>
+    <t>часы</t>
+  </si>
+  <si>
+    <t>минуты</t>
+  </si>
+  <si>
+    <t>секунды</t>
+  </si>
+  <si>
     <t>1 - включить</t>
   </si>
   <si>
-    <t>2 - минимальная яркость</t>
-  </si>
-  <si>
-    <t>3 - максимальная яркость</t>
+    <t>2 - мин яркость</t>
+  </si>
+  <si>
+    <t>3 - макс яркость</t>
   </si>
   <si>
     <t>4 - режим назад</t>
@@ -470,18 +482,6 @@
   </si>
   <si>
     <t>0.. 255</t>
-  </si>
-  <si>
-    <t>6 - отправить время</t>
-  </si>
-  <si>
-    <t>день недели</t>
-  </si>
-  <si>
-    <t>часы</t>
-  </si>
-  <si>
-    <t>минуты</t>
   </si>
 </sst>
 </file>
@@ -489,9 +489,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -523,9 +523,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,68 +576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,25 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,6 +621,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -669,7 +669,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,13 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,13 +741,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +807,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,91 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,11 +878,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,188 +960,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,10 +1445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E7" sqref="E7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1555,10 +1555,18 @@
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1575,12 +1583,20 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1597,7 +1613,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1619,7 +1635,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1641,12 +1657,20 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1664,12 +1688,20 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1687,10 +1719,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1712,10 +1744,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1737,10 +1769,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1762,10 +1794,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1787,13 +1819,13 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1814,7 +1846,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1837,7 +1869,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1859,87 +1891,99 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:25">
+    <row r="17" ht="30" customHeight="1" spans="1:29">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:25">
@@ -1947,70 +1991,70 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:19">
@@ -2032,62 +2076,74 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:20">
+    <row r="20" ht="30" customHeight="1" spans="1:24">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:20">
@@ -2095,48 +2151,48 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:19">
@@ -2157,80 +2213,92 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="1:26">
+    <row r="23" ht="30" customHeight="1" spans="1:30">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:26">
@@ -2238,73 +2306,73 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:19">
@@ -2329,45 +2397,53 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="S26" s="3"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:19">
@@ -2375,37 +2451,37 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2436,18 +2512,10 @@
     <row r="29" ht="30" customHeight="1" spans="1:19">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>

--- a/docs/Протокол/GyverLamp_UDP.xlsx
+++ b/docs/Протокол/GyverLamp_UDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21150" windowHeight="10560"/>
+    <workbookView windowWidth="26370" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
-  <si>
-    <t>Ключ</t>
-  </si>
-  <si>
-    <t>Дата 0 (канал)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="155">
+  <si>
+    <t>Дата 0 (ключ GL)</t>
   </si>
   <si>
     <t>Дата 1 (тип)</t>
@@ -100,7 +97,7 @@
     <t>Дата 26</t>
   </si>
   <si>
-    <t>1,2.. 10</t>
+    <t>GL</t>
   </si>
   <si>
     <t>0 - управление</t>
@@ -490,9 +487,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -517,7 +514,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,16 +527,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,30 +551,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,13 +575,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +589,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,10 +620,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,13 +656,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -669,7 +666,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,25 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,67 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,66 +850,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -864,40 +861,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,16 +896,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,16 +962,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,46 +983,46 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1034,79 +1031,79 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,125 +1444,124 @@
   <sheetPr/>
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="29" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="29" width="15.7142857142857" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:19">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1583,19 +1579,19 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1613,7 +1609,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1635,7 +1631,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1657,19 +1653,19 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1688,19 +1684,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1719,10 +1715,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1744,10 +1740,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1769,10 +1765,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1794,10 +1790,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1819,13 +1815,13 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1846,7 +1842,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1869,7 +1865,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1891,10 +1887,10 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:2">
@@ -1905,85 +1901,85 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="Z17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:25">
@@ -1991,70 +1987,70 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:19">
@@ -2080,70 +2076,70 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="S20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="U20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:20">
@@ -2151,48 +2147,48 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="N21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:19">
@@ -2217,88 +2213,88 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="AA23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="3" t="s">
+      <c r="AC23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC23" s="3" t="s">
+      <c r="AD23" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:26">
@@ -2306,73 +2302,73 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:19">
@@ -2397,52 +2393,52 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="S26" s="3"/>
     </row>
@@ -2451,37 +2447,37 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
